--- a/faiss09/evidence.xlsx
+++ b/faiss09/evidence.xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Крипта\___2022 new Airdrop and others\GON testnet\20\faiss09\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="782"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="87">
   <si>
     <t>TeamName</t>
   </si>
@@ -76,45 +71,12 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
   </si>
   <si>
@@ -143,13 +105,208 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>52E136FCAD1B04E064F1CA242E6055E03B0AC7EA2EB1D3BD3907114214A9BC64</t>
+  </si>
+  <si>
+    <t>hearts</t>
+  </si>
+  <si>
+    <t>4A7AE6D3E0743143687A62C3056CB33CB72EFE79A71F712A0DBC870919B03642</t>
+  </si>
+  <si>
+    <t>h/1</t>
+  </si>
+  <si>
+    <t>1E17C37B8CF6E9FE7B3DC345212619C0BB385E6A64617D3BAE933BA8D05E0F1E</t>
+  </si>
+  <si>
+    <t>h/2</t>
+  </si>
+  <si>
+    <t>37E13ACD482EE4ACBD1FA51ED8C02DD175AA6DBD2AB01A9E14598166C1AF06A8</t>
+  </si>
+  <si>
+    <t>stars19lfsh3qk4dt9huy66a4a67sjvy4w2xagvxmq06wpf39qcdnd56gswl6cc0</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>96FEDC921CDB59EE6E10BBCCBAB43200776D1627ACD84BBBCD9F29FB7AA837AC</t>
+  </si>
+  <si>
+    <t>ibc/6312D2FB1438F959CBE47E7C3B7668BE908934D3BA944F6752A4D877B5E648A3</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>B0EFA9A5290D163135F4A0948E182B41BC7780AD4FE8D22587FCA2C60AEF73B4</t>
+  </si>
+  <si>
+    <t>9FF7A33928FAF66A70279B864026E72D83179EFBCE0226434C6555CCD1EAE141</t>
+  </si>
+  <si>
+    <t>ibc/7B19E38D8302BA4A4A0BF1A1F7790404B4521FDADD8DBCD8AA7F1C57853FB32A</t>
+  </si>
+  <si>
+    <t>h/3</t>
+  </si>
+  <si>
+    <t>ibc/D5F5447A7151EF09A37F954AB59B6967E709906726D4846226F5CFB16B0DE558</t>
+  </si>
+  <si>
+    <t>h/4</t>
+  </si>
+  <si>
+    <t>ibc/7D262F9DE9F341337A82035D9C61DEE316852BB18513B7A3415EBEF56CE54619</t>
+  </si>
+  <si>
+    <t>h/5</t>
+  </si>
+  <si>
+    <t>ibc/0FFCD9B678DE6DA1E22D0291B176CFF8782D061A84664304AB5A364D074C8C53</t>
+  </si>
+  <si>
+    <t>h/6</t>
+  </si>
+  <si>
+    <t>ibc/03B4242FCC65C1FA3CAC009B657AB97072E1FBB7F823502FB3F2C2AB59C5C84B</t>
+  </si>
+  <si>
+    <t>h/7</t>
+  </si>
+  <si>
+    <t>ibc/92835FB57C79F2AADA0E8CC925A379AA318149FED5C21BAC90AECFE2E09437D7</t>
+  </si>
+  <si>
+    <t>h/8</t>
+  </si>
+  <si>
+    <t>E0B45DDB254AD3F332284A79784CB0C2C7CC5B6052EF800834F9F6609FCBA841</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>073CB94DBC51E63915A986D312DF9A14F6C7FC1B650DFB30D34248DF58814B57</t>
+  </si>
+  <si>
+    <t>39B8FA134381FAF7103909D0D85D9667C5B94A187B3E9F2A47BE3EFE73D70110</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>D8FC04C33513887103F0EDB03A4F7118FD4C1BA2D95693C80B13D0A3A60BB29E</t>
+  </si>
+  <si>
+    <t>6CDD450FEC92DC980887DF5235D31A6671D7DDAA2B8CD41BE293D989FFEDE122</t>
+  </si>
+  <si>
+    <t>6DC04234E322CEE7A07BE09197E3E72D95C021EEFF2037286C46E69B9412AAAD</t>
+  </si>
+  <si>
+    <t>171AD717458BACDA1BF26F3CF2B32E678241C897FDC9EBE415B99A7B67167341</t>
+  </si>
+  <si>
+    <t>727532F485321B253B9AA932A898C4FBC3F9B9B052D4F94B0E37070266D0CEAE</t>
+  </si>
+  <si>
+    <t>E5C5E4157BF2406AC80F18FB349942FAD875B1056FCCA96FC57690471F5CCD0B</t>
+  </si>
+  <si>
+    <t>C8EDE665AECA545FB22C5B3AEBAE216BE0E8C11DA04F58741E7C27B75EEA8940</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>A5C48F49EE170ACEC2C8EF81D7D2D9724DC984E35E5EF20DD3142618D635C121</t>
+  </si>
+  <si>
+    <t>96F68E57A38085D59067C761133195B52FBCE45653CB63BF251BF19BF455188B</t>
+  </si>
+  <si>
+    <t>88B65ADE53CAFDDE2AE55064C1C08D325FA5D03809BC925D2ACD601E5295C350</t>
+  </si>
+  <si>
+    <t>B5C7574083B3615B616DD0159D32A2F68F9EF12E7E83243805ACA8813C4CE8C3</t>
+  </si>
+  <si>
+    <t>7A9F2F0849DD89B5DC57AA3DFED758A8C6A28F78988BC44329318B6FB099A36A</t>
+  </si>
+  <si>
+    <t>7493CA0594C4EE55D17F30235B121FC292385BF3376483A717674FCE816B7104</t>
+  </si>
+  <si>
+    <t>99A60B59371385F58649DA78E3E4BF44A21AE5BE46FE7FAECCA544F42AB020C4</t>
+  </si>
+  <si>
+    <t>773CE8DAF22B5CE8D5A870EA630C1268CB858B36739DCBB5A2CA7D2D83FEBD5A</t>
+  </si>
+  <si>
+    <t>EDABA37B82D04867D6455E897168CAE4B1FAA62BC4B29478691A5903DE2165A9</t>
+  </si>
+  <si>
+    <t>76ABB44C96DED413E33A7DD162269A519B5756D0C6B79C3A37305C5872F15073</t>
+  </si>
+  <si>
+    <t>50E09BECD3FBA6775434F37A35E6A42604D223539EF396D41E5376143FFB5E5B</t>
+  </si>
+  <si>
+    <t>72995D78422EEE7C2D0E62A120AB8281E41A82177BDA2A26A73B01A76F815210</t>
+  </si>
+  <si>
+    <t>4D2F3D18A1B924C13A9CE87E102987F81B2D7491F14AF755FCC3431169E15BA7</t>
+  </si>
+  <si>
+    <t>257E4ABBADC4EBF8E3FC0524F0A5B5998B01105A71C7548B843D410E14327202</t>
+  </si>
+  <si>
+    <t>8A7A16BBC46D4435250450BC747D463E0CD35B9C565ED85937A85DE587608ABD</t>
+  </si>
+  <si>
+    <t>43F83949BFB8D3A14F9BC3F22F12D8C4733712D996C48CAA80332FB8FCC1FC5E</t>
+  </si>
+  <si>
+    <t>AE9B21FA67DE089C1D58C309CD0D1B4D4B3FF63D0F049A56A62507C751C363D9</t>
+  </si>
+  <si>
+    <t>CC0F947F4B5167D6A13CDF9D656896905303DA91DBC4D391360F742F8E94B126</t>
+  </si>
+  <si>
+    <t>E8863D19A5AADEFF10158354E25B6F2A97A034AEDED62C590354CA1B80C7C68C</t>
+  </si>
+  <si>
+    <t>72F1A930077B2000258B3C03562BDD1237BC0B17133FEAF5201F3DD112D2D330</t>
+  </si>
+  <si>
+    <t>CD6735EDE83A5CC53311E8A170D3EC4A900A03C8D4DD60B6AE30A2A90069C800</t>
+  </si>
+  <si>
+    <t>44ECD46AB08C044C3B3EF05F79BD0A7683204143FD39CEBDC090CDB80CEE20FA</t>
+  </si>
+  <si>
+    <t>959F7C11CD56E10467DBD51EDD09302A22834F10ED334CA84A64FA076762F09A</t>
+  </si>
+  <si>
+    <t>04B7F7D36CD4FE84EC5859F8CEE302386BE06B061F4C19FCBA0EBF3D4BBBD4D2</t>
+  </si>
+  <si>
+    <t>596E9E49849EBF01A940821887924B0CA0A443A07602EF56C50182186F8F95C6</t>
+  </si>
+  <si>
+    <t>E2CAC009614120D03AAB9B82D88B814584BC667BAC5B9B76837F0C2147D234CE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -161,6 +318,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -210,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -225,6 +389,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -571,7 +739,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,28 +782,28 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -661,15 +831,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -695,15 +867,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -729,15 +903,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +924,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -763,15 +939,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -782,9 +958,71 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -797,38 +1035,329 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -841,43 +1370,75 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
+      <c r="A2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
+      <c r="A3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+      <c r="A4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -885,278 +1446,55 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
+      <c r="A2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
+      <c r="A3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
+      <c r="A4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1169,7 +1507,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1183,12 +1523,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1201,7 +1541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1215,12 +1557,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1575,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1247,12 +1591,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1266,7 +1610,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1281,12 +1625,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1300,7 +1644,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,24 +1656,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1345,18 +1692,29 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1369,7 +1727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1386,24 +1746,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1416,7 +1776,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1433,24 +1795,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1463,7 +1825,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1480,24 +1844,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +1874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1528,24 +1894,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +1924,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1571,15 +1939,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1592,7 +1960,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1605,15 +1975,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
